--- a/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/shokyu_ans.xlsx
+++ b/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/shokyu_ans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Desktop/005_研究会等/20211024_001_2021年関西科学塾/ImmuneCellQuest/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1F6197-35E7-FA4F-9C3F-444E9E660B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF216EE4-7C0F-7147-AF69-5ADEC7A91B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33960" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33960" windowHeight="20700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常の解答" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t/>
-  </si>
-  <si>
-    <t>CD2</t>
   </si>
   <si>
     <t>S100A8</t>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>NKG7</t>
-  </si>
-  <si>
-    <t>CD14</t>
   </si>
   <si>
     <t>Cell_1</t>
@@ -78,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -87,11 +81,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -131,7 +132,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2054,28 +2055,19 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>工夫した解答!$C$1:$I$1</c:f>
+              <c:f>工夫した解答!$C$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>CD2</c:v>
+                  <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CD3D</c:v>
+                  <c:v>S100A8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CD14</c:v>
+                  <c:v>NKG7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S100A8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GZMA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NKG7</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>CD79A</c:v>
                 </c:pt>
               </c:strCache>
@@ -2083,29 +2075,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工夫した解答!$C$12:$I$12</c:f>
+              <c:f>工夫した解答!$C$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.8461538461538463</c:v>
+                  <c:v>1.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8571428571428572</c:v>
+                  <c:v>2.5157232704402517E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2727272727272728E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5157232704402517E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2727272727272728E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2147,28 +2130,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>工夫した解答!$C$1:$I$1</c:f>
+              <c:f>工夫した解答!$C$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>CD2</c:v>
+                  <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CD3D</c:v>
+                  <c:v>S100A8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CD14</c:v>
+                  <c:v>NKG7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S100A8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GZMA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NKG7</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>CD79A</c:v>
                 </c:pt>
               </c:strCache>
@@ -2176,29 +2150,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工夫した解答!$C$13:$I$13</c:f>
+              <c:f>工夫した解答!$C$13:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.61538461538461542</c:v>
+                  <c:v>0.6428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6428571428571429</c:v>
+                  <c:v>3.89937106918239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7894736842105261</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.89937106918239</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5454545454545456E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2224,28 +2189,19 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>工夫した解答!$C$1:$I$1</c:f>
+              <c:f>工夫した解答!$C$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>CD2</c:v>
+                  <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CD3D</c:v>
+                  <c:v>S100A8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CD14</c:v>
+                  <c:v>NKG7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S100A8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GZMA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NKG7</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>CD79A</c:v>
                 </c:pt>
               </c:strCache>
@@ -2253,29 +2209,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工夫した解答!$C$14:$I$14</c:f>
+              <c:f>工夫した解答!$C$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92307692307692313</c:v>
+                  <c:v>0.9285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9285714285714286</c:v>
+                  <c:v>5.0314465408805034E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>3.8863636363636362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0314465408805034E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8863636363636362</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2301,28 +2248,19 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>工夫した解答!$C$1:$I$1</c:f>
+              <c:f>工夫した解答!$C$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>CD2</c:v>
+                  <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CD3D</c:v>
+                  <c:v>S100A8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CD14</c:v>
+                  <c:v>NKG7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>S100A8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GZMA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NKG7</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>CD79A</c:v>
                 </c:pt>
               </c:strCache>
@@ -2330,29 +2268,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工夫した解答!$C$15:$I$15</c:f>
+              <c:f>工夫した解答!$C$15:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.61538461538461542</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>2.5157232704402517E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5157232704402517E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5454545454545456E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -4920,7 +4849,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -5234,7 +5163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5249,21 +5178,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>26</v>
@@ -5280,7 +5209,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
@@ -5297,7 +5226,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -5314,7 +5243,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -5362,9 +5291,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214DA001-3826-FC40-957A-04869F3677A2}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5372,336 +5301,219 @@
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>155</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>26</v>
-      </c>
-      <c r="E2">
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>171</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>155</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>171</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:I7" si="0" xml:space="preserve"> AVERAGE(C2:C5)</f>
-        <v>3.25</v>
+        <f t="shared" ref="C7:F7" si="0" xml:space="preserve"> AVERAGE(C2:C5)</f>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>39.75</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>39.75</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
       <c r="C12" s="2">
-        <f xml:space="preserve"> C2 / C7</f>
-        <v>1.8461538461538463</v>
+        <f t="shared" ref="C12:F12" si="1" xml:space="preserve"> C2 / C7</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:I12" si="1" xml:space="preserve"> D2 / D7</f>
-        <v>1.8571428571428572</v>
+        <f t="shared" si="1"/>
+        <v>2.5157232704402517E-2</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>2.5157232704402517E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2727272727272728E-2</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
-        <f xml:space="preserve"> C3 / C7</f>
-        <v>0.61538461538461542</v>
+        <f t="shared" ref="C13:F13" si="2" xml:space="preserve"> C3 / C7</f>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:I13" si="2" xml:space="preserve"> D3 / D7</f>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="2"/>
+        <v>3.89937106918239</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>3.7894736842105261</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>3.89937106918239</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="2"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
-        <f xml:space="preserve"> C4 / C7</f>
-        <v>0.92307692307692313</v>
+        <f t="shared" ref="C14:F14" si="3" xml:space="preserve"> C4 / C7</f>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:I14" si="3" xml:space="preserve"> D4 / D7</f>
-        <v>0.9285714285714286</v>
+        <f t="shared" si="3"/>
+        <v>5.0314465408805034E-2</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="3"/>
-        <v>0.21052631578947367</v>
+        <v>3.8863636363636362</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="3"/>
-        <v>5.0314465408805034E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="3"/>
-        <v>3.8863636363636362</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2">
-        <f xml:space="preserve"> C5 / C7</f>
-        <v>0.61538461538461542</v>
+        <f t="shared" ref="C15:F15" si="4" xml:space="preserve"> C5 / C7</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:I15" si="4" xml:space="preserve"> D5 / D7</f>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="4"/>
+        <v>2.5157232704402517E-2</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="4"/>
-        <v>2.5157232704402517E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="I15" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/shokyu_ans.xlsx
+++ b/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/shokyu_ans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Desktop/005_研究会等/20211024_001_2021年関西科学塾/ImmuneCellQuest/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF216EE4-7C0F-7147-AF69-5ADEC7A91B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2BC66A-8251-8B4F-90F2-C132F419F613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33960" windowHeight="20700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33960" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常の解答" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>S100A8</t>
   </si>
   <si>
-    <t>GZMA</t>
-  </si>
-  <si>
     <t>CD3D</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>以下、それぞれの遺伝子について、RNA 数を平均値で割った結果</t>
+  </si>
+  <si>
+    <t>CD14</t>
   </si>
 </sst>
 </file>
@@ -238,10 +238,10 @@
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S100A8</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GZMA</c:v>
+                  <c:v>NKG7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>CD79A</c:v>
@@ -262,7 +262,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -593,10 +593,10 @@
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S100A8</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GZMA</c:v>
+                  <c:v>NKG7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>CD79A</c:v>
@@ -614,7 +614,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -948,10 +948,10 @@
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S100A8</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GZMA</c:v>
+                  <c:v>NKG7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>CD79A</c:v>
@@ -969,10 +969,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1303,10 +1303,10 @@
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S100A8</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GZMA</c:v>
+                  <c:v>NKG7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>CD79A</c:v>
@@ -1614,16 +1614,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(通常の解答!$C$1,通常の解答!$E$1,通常の解答!$F$1)</c:f>
+              <c:f>通常の解答!$C$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GZMA</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>NKG7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>CD79A</c:v>
                 </c:pt>
               </c:strCache>
@@ -1631,17 +1634,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(通常の解答!$C$2,通常の解答!$E$2,通常の解答!$F$2)</c:f>
+              <c:f>通常の解答!$C$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1683,16 +1689,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(通常の解答!$C$1,通常の解答!$E$1,通常の解答!$F$1)</c:f>
+              <c:f>通常の解答!$C$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GZMA</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>NKG7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>CD79A</c:v>
                 </c:pt>
               </c:strCache>
@@ -1700,17 +1709,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(通常の解答!$C$3,通常の解答!$E$3,通常の解答!$F$3)</c:f>
+              <c:f>通常の解答!$C$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1740,16 +1752,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(通常の解答!$C$1,通常の解答!$E$1,通常の解答!$F$1)</c:f>
+              <c:f>通常の解答!$C$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GZMA</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>NKG7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>CD79A</c:v>
                 </c:pt>
               </c:strCache>
@@ -1757,17 +1772,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(通常の解答!$C$4,通常の解答!$E$4,通常の解答!$F$4)</c:f>
+              <c:f>通常の解答!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1797,16 +1815,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(通常の解答!$C$1,通常の解答!$E$1,通常の解答!$F$1)</c:f>
+              <c:f>通常の解答!$C$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GZMA</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>NKG7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>CD79A</c:v>
                 </c:pt>
               </c:strCache>
@@ -1814,17 +1835,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(通常の解答!$C$5,通常の解答!$E$5,通常の解答!$F$5)</c:f>
+              <c:f>通常の解答!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -2053,6 +2077,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>工夫した解答!$C$1:$F$1</c:f>
@@ -2062,7 +2090,7 @@
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S100A8</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>NKG7</c:v>
@@ -2080,13 +2108,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.8571428571428572</c:v>
+                  <c:v>1.9622641509433962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5157232704402517E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2727272727272728E-2</c:v>
+                  <c:v>2.4844720496894408E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2115,7 +2143,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2137,7 +2165,7 @@
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S100A8</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>NKG7</c:v>
@@ -2155,13 +2183,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6428571428571429</c:v>
+                  <c:v>0.67924528301886788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.89937106918239</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2187,6 +2215,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>工夫した解答!$C$1:$F$1</c:f>
@@ -2196,7 +2228,7 @@
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S100A8</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>NKG7</c:v>
@@ -2214,13 +2246,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9285714285714286</c:v>
+                  <c:v>0.75471698113207553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0314465408805034E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8863636363636362</c:v>
+                  <c:v>3.9751552795031055</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2246,6 +2278,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>工夫した解答!$C$1:$F$1</c:f>
@@ -2255,7 +2291,7 @@
                   <c:v>CD3D</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>S100A8</c:v>
+                  <c:v>CD14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>NKG7</c:v>
@@ -2273,13 +2309,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.60377358490566035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5157232704402517E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -4849,8 +4885,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -5163,7 +5199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5178,21 +5214,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>26</v>
@@ -5201,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -5209,13 +5245,13 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -5226,16 +5262,16 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5243,7 +5279,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -5293,7 +5329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214DA001-3826-FC40-957A-04869F3677A2}">
   <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5302,102 +5338,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>155</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="1">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>171</v>
-      </c>
-      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>160</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:F7" si="0" xml:space="preserve"> AVERAGE(C2:C5)</f>
-        <v>14</v>
+        <v>13.25</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>39.75</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>40.25</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
@@ -5406,7 +5442,7 @@
     </row>
     <row r="9" spans="2:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -5415,33 +5451,33 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12:F12" si="1" xml:space="preserve"> C2 / C7</f>
-        <v>1.8571428571428572</v>
+        <v>1.9622641509433962</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>2.5157232704402517E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>2.2727272727272728E-2</v>
+        <v>2.4844720496894408E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
@@ -5450,19 +5486,19 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ref="C13:F13" si="2" xml:space="preserve"> C3 / C7</f>
-        <v>0.6428571428571429</v>
+        <v>0.67924528301886788</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>3.89937106918239</v>
+        <v>3.6</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>4.5454545454545456E-2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
@@ -5471,19 +5507,19 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:F14" si="3" xml:space="preserve"> C4 / C7</f>
-        <v>0.9285714285714286</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="3"/>
-        <v>5.0314465408805034E-2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="3"/>
-        <v>3.8863636363636362</v>
+        <v>3.9751552795031055</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="3"/>
@@ -5492,19 +5528,19 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ref="C15:F15" si="4" xml:space="preserve"> C5 / C7</f>
-        <v>0.5714285714285714</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="4"/>
-        <v>2.5157232704402517E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="4"/>
-        <v>4.5454545454545456E-2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="4"/>

--- a/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/shokyu_ans.xlsx
+++ b/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/shokyu_ans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiida/Desktop/005_研究会等/20211024_001_2021年関西科学塾/ImmuneCellQuest/quest_dc_09_0000/quest_dc_10_0000/quest_dc_10_0010/quest_dc_10_0020/quest_dc_10_0030/quest_dc_10_0040/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2BC66A-8251-8B4F-90F2-C132F419F613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518B6B3E-729E-EB47-9679-A8DC23724B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33960" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t/>
-  </si>
-  <si>
-    <t>S100A8</t>
   </si>
   <si>
     <t>CD3D</t>
@@ -5214,21 +5211,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>26</v>
@@ -5245,7 +5242,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
@@ -5262,7 +5259,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -5279,7 +5276,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -5339,21 +5336,21 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>26</v>
@@ -5370,7 +5367,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
@@ -5387,7 +5384,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -5404,7 +5401,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -5421,7 +5418,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:F7" si="0" xml:space="preserve"> AVERAGE(C2:C5)</f>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="9" spans="2:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -5451,21 +5448,21 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12:F12" si="1" xml:space="preserve"> C2 / C7</f>
@@ -5486,7 +5483,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ref="C13:F13" si="2" xml:space="preserve"> C3 / C7</f>
@@ -5507,7 +5504,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:F14" si="3" xml:space="preserve"> C4 / C7</f>
@@ -5528,7 +5525,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ref="C15:F15" si="4" xml:space="preserve"> C5 / C7</f>
